--- a/Ergebnisse_Summary_Reeval/Reeval_Sobol_Modell_2/Reeval_Sobol_Modell_2_summary.xlsx
+++ b/Ergebnisse_Summary_Reeval/Reeval_Sobol_Modell_2/Reeval_Sobol_Modell_2_summary.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="259" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="379" uniqueCount="90">
   <si>
     <t>timestamp</t>
   </si>
@@ -76,6 +76,21 @@
     <t>2025-11-22 12:37:16</t>
   </si>
   <si>
+    <t>2025-12-23 22:29:03</t>
+  </si>
+  <si>
+    <t>2025-12-23 22:29:04</t>
+  </si>
+  <si>
+    <t>2025-12-23 22:29:05</t>
+  </si>
+  <si>
+    <t>2025-12-23 22:29:06</t>
+  </si>
+  <si>
+    <t>2025-12-23 22:29:07</t>
+  </si>
+  <si>
     <t>Study_15_10_2025_Sobol_Modell_2_KS_Holdout_seed_0</t>
   </si>
   <si>
@@ -179,6 +194,96 @@
   </si>
   <si>
     <t>Ergebnisse/Study_15_10_2025_Sobol_Modell_2_KS_Holdout_seed_999/models/Study_15_10_2025_Sobol_Modell_2_KS_Holdout_seed_999_61.keras</t>
+  </si>
+  <si>
+    <t>Ergebnisse_Teil_1/Study_15_10_2025_Sobol_Modell_2_KS_Holdout_seed_0/models/Study_15_10_2025_Sobol_Modell_2_KS_Holdout_seed_0_291.keras</t>
+  </si>
+  <si>
+    <t>Ergebnisse_Teil_1/Study_15_10_2025_Sobol_Modell_2_KS_Holdout_seed_0/models/Study_15_10_2025_Sobol_Modell_2_KS_Holdout_seed_0_311.keras</t>
+  </si>
+  <si>
+    <t>Ergebnisse_Teil_1/Study_15_10_2025_Sobol_Modell_2_KS_Holdout_seed_0/models/Study_15_10_2025_Sobol_Modell_2_KS_Holdout_seed_0_331.keras</t>
+  </si>
+  <si>
+    <t>Ergebnisse_Teil_1/Study_15_10_2025_Sobol_Modell_2_KS_Holdout_seed_0/models/Study_15_10_2025_Sobol_Modell_2_KS_Holdout_seed_0_341.keras</t>
+  </si>
+  <si>
+    <t>Ergebnisse_Teil_1/Study_15_10_2025_Sobol_Modell_2_KS_Holdout_seed_0/models/Study_15_10_2025_Sobol_Modell_2_KS_Holdout_seed_0_363.keras</t>
+  </si>
+  <si>
+    <t>Ergebnisse_Teil_1/Study_15_10_2025_Sobol_Modell_2_KS_Holdout_seed_0/models/Study_15_10_2025_Sobol_Modell_2_KS_Holdout_seed_0_373.keras</t>
+  </si>
+  <si>
+    <t>Ergebnisse_Teil_1/Study_15_10_2025_Sobol_Modell_2_KS_Holdout_seed_0/models/Study_15_10_2025_Sobol_Modell_2_KS_Holdout_seed_0_383.keras</t>
+  </si>
+  <si>
+    <t>Ergebnisse_Teil_1/Study_15_10_2025_Sobol_Modell_2_KS_Holdout_seed_0/models/Study_15_10_2025_Sobol_Modell_2_KS_Holdout_seed_0_403.keras</t>
+  </si>
+  <si>
+    <t>Ergebnisse_Teil_1/Study_15_10_2025_Sobol_Modell_2_KS_Holdout_seed_0/models/Study_15_10_2025_Sobol_Modell_2_KS_Holdout_seed_0_413.keras</t>
+  </si>
+  <si>
+    <t>Ergebnisse_Teil_1/Study_15_10_2025_Sobol_Modell_2_KS_Holdout_seed_0/models/Study_15_10_2025_Sobol_Modell_2_KS_Holdout_seed_0_473.keras</t>
+  </si>
+  <si>
+    <t>Ergebnisse_Teil_1/Study_15_10_2025_Sobol_Modell_2_KS_Holdout_seed_42/models/Study_15_10_2025_Sobol_Modell_2_KS_Holdout_seed_42_103.keras</t>
+  </si>
+  <si>
+    <t>Ergebnisse_Teil_1/Study_15_10_2025_Sobol_Modell_2_KS_Holdout_seed_42/models/Study_15_10_2025_Sobol_Modell_2_KS_Holdout_seed_42_119.keras</t>
+  </si>
+  <si>
+    <t>Ergebnisse_Teil_1/Study_15_10_2025_Sobol_Modell_2_KS_Holdout_seed_42/models/Study_15_10_2025_Sobol_Modell_2_KS_Holdout_seed_42_124.keras</t>
+  </si>
+  <si>
+    <t>Ergebnisse_Teil_1/Study_15_10_2025_Sobol_Modell_2_KS_Holdout_seed_42/models/Study_15_10_2025_Sobol_Modell_2_KS_Holdout_seed_42_166.keras</t>
+  </si>
+  <si>
+    <t>Ergebnisse_Teil_1/Study_15_10_2025_Sobol_Modell_2_KS_Holdout_seed_42/models/Study_15_10_2025_Sobol_Modell_2_KS_Holdout_seed_42_239.keras</t>
+  </si>
+  <si>
+    <t>Ergebnisse_Teil_1/Study_15_10_2025_Sobol_Modell_2_KS_Holdout_seed_42/models/Study_15_10_2025_Sobol_Modell_2_KS_Holdout_seed_42_338.keras</t>
+  </si>
+  <si>
+    <t>Ergebnisse_Teil_1/Study_15_10_2025_Sobol_Modell_2_KS_Holdout_seed_42/models/Study_15_10_2025_Sobol_Modell_2_KS_Holdout_seed_42_414.keras</t>
+  </si>
+  <si>
+    <t>Ergebnisse_Teil_1/Study_15_10_2025_Sobol_Modell_2_KS_Holdout_seed_42/models/Study_15_10_2025_Sobol_Modell_2_KS_Holdout_seed_42_90.keras</t>
+  </si>
+  <si>
+    <t>Ergebnisse_Teil_1/Study_15_10_2025_Sobol_Modell_2_KS_Holdout_seed_42/models/Study_15_10_2025_Sobol_Modell_2_KS_Holdout_seed_42_95.keras</t>
+  </si>
+  <si>
+    <t>Ergebnisse_Teil_1/Study_15_10_2025_Sobol_Modell_2_KS_Holdout_seed_42/models/Study_15_10_2025_Sobol_Modell_2_KS_Holdout_seed_42_99.keras</t>
+  </si>
+  <si>
+    <t>Ergebnisse_Teil_1/Study_15_10_2025_Sobol_Modell_2_KS_Holdout_seed_999/models/Study_15_10_2025_Sobol_Modell_2_KS_Holdout_seed_999_170.keras</t>
+  </si>
+  <si>
+    <t>Ergebnisse_Teil_1/Study_15_10_2025_Sobol_Modell_2_KS_Holdout_seed_999/models/Study_15_10_2025_Sobol_Modell_2_KS_Holdout_seed_999_173.keras</t>
+  </si>
+  <si>
+    <t>Ergebnisse_Teil_1/Study_15_10_2025_Sobol_Modell_2_KS_Holdout_seed_999/models/Study_15_10_2025_Sobol_Modell_2_KS_Holdout_seed_999_190.keras</t>
+  </si>
+  <si>
+    <t>Ergebnisse_Teil_1/Study_15_10_2025_Sobol_Modell_2_KS_Holdout_seed_999/models/Study_15_10_2025_Sobol_Modell_2_KS_Holdout_seed_999_200.keras</t>
+  </si>
+  <si>
+    <t>Ergebnisse_Teil_1/Study_15_10_2025_Sobol_Modell_2_KS_Holdout_seed_999/models/Study_15_10_2025_Sobol_Modell_2_KS_Holdout_seed_999_216.keras</t>
+  </si>
+  <si>
+    <t>Ergebnisse_Teil_1/Study_15_10_2025_Sobol_Modell_2_KS_Holdout_seed_999/models/Study_15_10_2025_Sobol_Modell_2_KS_Holdout_seed_999_239.keras</t>
+  </si>
+  <si>
+    <t>Ergebnisse_Teil_1/Study_15_10_2025_Sobol_Modell_2_KS_Holdout_seed_999/models/Study_15_10_2025_Sobol_Modell_2_KS_Holdout_seed_999_298.keras</t>
+  </si>
+  <si>
+    <t>Ergebnisse_Teil_1/Study_15_10_2025_Sobol_Modell_2_KS_Holdout_seed_999/models/Study_15_10_2025_Sobol_Modell_2_KS_Holdout_seed_999_323.keras</t>
+  </si>
+  <si>
+    <t>Ergebnisse_Teil_1/Study_15_10_2025_Sobol_Modell_2_KS_Holdout_seed_999/models/Study_15_10_2025_Sobol_Modell_2_KS_Holdout_seed_999_60.keras</t>
+  </si>
+  <si>
+    <t>Ergebnisse_Teil_1/Study_15_10_2025_Sobol_Modell_2_KS_Holdout_seed_999/models/Study_15_10_2025_Sobol_Modell_2_KS_Holdout_seed_999_61.keras</t>
   </si>
 </sst>
 </file>
@@ -536,7 +641,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:I61"/>
+  <dimension ref="A1:I91"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -576,13 +681,13 @@
         <v>9</v>
       </c>
       <c r="B2" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="C2">
         <v>291</v>
       </c>
       <c r="D2" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="E2">
         <v>2</v>
@@ -597,7 +702,7 @@
         <v>-1.104243486348801</v>
       </c>
       <c r="I2" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
     </row>
     <row r="3" spans="1:9">
@@ -605,13 +710,13 @@
         <v>9</v>
       </c>
       <c r="B3" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="C3">
         <v>311</v>
       </c>
       <c r="D3" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="E3">
         <v>2</v>
@@ -626,7 +731,7 @@
         <v>-1.158100814197534</v>
       </c>
       <c r="I3" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
     </row>
     <row r="4" spans="1:9">
@@ -634,13 +739,13 @@
         <v>9</v>
       </c>
       <c r="B4" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="C4">
         <v>331</v>
       </c>
       <c r="D4" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="E4">
         <v>2</v>
@@ -655,7 +760,7 @@
         <v>-0.432796762687722</v>
       </c>
       <c r="I4" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
     </row>
     <row r="5" spans="1:9">
@@ -663,13 +768,13 @@
         <v>10</v>
       </c>
       <c r="B5" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="C5">
         <v>341</v>
       </c>
       <c r="D5" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="E5">
         <v>2</v>
@@ -684,7 +789,7 @@
         <v>-0.4206730835361734</v>
       </c>
       <c r="I5" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
     </row>
     <row r="6" spans="1:9">
@@ -692,13 +797,13 @@
         <v>10</v>
       </c>
       <c r="B6" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="C6">
         <v>363</v>
       </c>
       <c r="D6" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="E6">
         <v>2</v>
@@ -713,7 +818,7 @@
         <v>-0.2223168611566289</v>
       </c>
       <c r="I6" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
     </row>
     <row r="7" spans="1:9">
@@ -721,13 +826,13 @@
         <v>10</v>
       </c>
       <c r="B7" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="C7">
         <v>373</v>
       </c>
       <c r="D7" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="E7">
         <v>2</v>
@@ -742,7 +847,7 @@
         <v>-0.1612812331797882</v>
       </c>
       <c r="I7" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
     </row>
     <row r="8" spans="1:9">
@@ -750,13 +855,13 @@
         <v>11</v>
       </c>
       <c r="B8" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="C8">
         <v>383</v>
       </c>
       <c r="D8" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="E8">
         <v>2</v>
@@ -771,7 +876,7 @@
         <v>-0.8444749520403274</v>
       </c>
       <c r="I8" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
     </row>
     <row r="9" spans="1:9">
@@ -779,13 +884,13 @@
         <v>11</v>
       </c>
       <c r="B9" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="C9">
         <v>403</v>
       </c>
       <c r="D9" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="E9">
         <v>2</v>
@@ -800,7 +905,7 @@
         <v>-0.5672911159582186</v>
       </c>
       <c r="I9" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
     </row>
     <row r="10" spans="1:9">
@@ -808,13 +913,13 @@
         <v>11</v>
       </c>
       <c r="B10" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="C10">
         <v>413</v>
       </c>
       <c r="D10" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="E10">
         <v>2</v>
@@ -829,7 +934,7 @@
         <v>-0.8131272164607715</v>
       </c>
       <c r="I10" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
     </row>
     <row r="11" spans="1:9">
@@ -837,13 +942,13 @@
         <v>11</v>
       </c>
       <c r="B11" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="C11">
         <v>473</v>
       </c>
       <c r="D11" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="E11">
         <v>2</v>
@@ -858,7 +963,7 @@
         <v>-0.4045798633538944</v>
       </c>
       <c r="I11" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
     </row>
     <row r="12" spans="1:9">
@@ -866,13 +971,13 @@
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="C12">
         <v>103</v>
       </c>
       <c r="D12" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="E12">
         <v>2</v>
@@ -887,7 +992,7 @@
         <v>-0.3301303523274104</v>
       </c>
       <c r="I12" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
     </row>
     <row r="13" spans="1:9">
@@ -895,13 +1000,13 @@
         <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="C13">
         <v>119</v>
       </c>
       <c r="D13" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="E13">
         <v>2</v>
@@ -916,7 +1021,7 @@
         <v>-0.06591166355494638</v>
       </c>
       <c r="I13" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
     </row>
     <row r="14" spans="1:9">
@@ -924,13 +1029,13 @@
         <v>12</v>
       </c>
       <c r="B14" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="C14">
         <v>124</v>
       </c>
       <c r="D14" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="E14">
         <v>2</v>
@@ -945,7 +1050,7 @@
         <v>-0.4685459320168228</v>
       </c>
       <c r="I14" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
     </row>
     <row r="15" spans="1:9">
@@ -953,13 +1058,13 @@
         <v>12</v>
       </c>
       <c r="B15" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="C15">
         <v>166</v>
       </c>
       <c r="D15" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="E15">
         <v>2</v>
@@ -974,7 +1079,7 @@
         <v>-0.307648890775436</v>
       </c>
       <c r="I15" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
     </row>
     <row r="16" spans="1:9">
@@ -982,13 +1087,13 @@
         <v>13</v>
       </c>
       <c r="B16" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="C16">
         <v>239</v>
       </c>
       <c r="D16" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="E16">
         <v>2</v>
@@ -1003,7 +1108,7 @@
         <v>-0.5188568224015109</v>
       </c>
       <c r="I16" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
     </row>
     <row r="17" spans="1:9">
@@ -1011,13 +1116,13 @@
         <v>13</v>
       </c>
       <c r="B17" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="C17">
         <v>338</v>
       </c>
       <c r="D17" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="E17">
         <v>2</v>
@@ -1032,7 +1137,7 @@
         <v>-1.676301750812951</v>
       </c>
       <c r="I17" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
     </row>
     <row r="18" spans="1:9">
@@ -1040,13 +1145,13 @@
         <v>13</v>
       </c>
       <c r="B18" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="C18">
         <v>414</v>
       </c>
       <c r="D18" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="E18">
         <v>2</v>
@@ -1061,7 +1166,7 @@
         <v>-0.3897110356840685</v>
       </c>
       <c r="I18" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
     </row>
     <row r="19" spans="1:9">
@@ -1069,13 +1174,13 @@
         <v>13</v>
       </c>
       <c r="B19" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="C19">
         <v>90</v>
       </c>
       <c r="D19" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="E19">
         <v>2</v>
@@ -1090,7 +1195,7 @@
         <v>-0.1653165343677294</v>
       </c>
       <c r="I19" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
     </row>
     <row r="20" spans="1:9">
@@ -1098,13 +1203,13 @@
         <v>13</v>
       </c>
       <c r="B20" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="C20">
         <v>95</v>
       </c>
       <c r="D20" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="E20">
         <v>2</v>
@@ -1119,7 +1224,7 @@
         <v>-0.6167762037184994</v>
       </c>
       <c r="I20" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
     </row>
     <row r="21" spans="1:9">
@@ -1127,13 +1232,13 @@
         <v>13</v>
       </c>
       <c r="B21" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="C21">
         <v>99</v>
       </c>
       <c r="D21" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="E21">
         <v>2</v>
@@ -1148,7 +1253,7 @@
         <v>-0.3312897273699975</v>
       </c>
       <c r="I21" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
     </row>
     <row r="22" spans="1:9">
@@ -1156,13 +1261,13 @@
         <v>14</v>
       </c>
       <c r="B22" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="C22">
         <v>170</v>
       </c>
       <c r="D22" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="E22">
         <v>2</v>
@@ -1177,7 +1282,7 @@
         <v>-0.2697520589615139</v>
       </c>
       <c r="I22" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
     </row>
     <row r="23" spans="1:9">
@@ -1185,13 +1290,13 @@
         <v>14</v>
       </c>
       <c r="B23" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="C23">
         <v>173</v>
       </c>
       <c r="D23" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="E23">
         <v>2</v>
@@ -1206,7 +1311,7 @@
         <v>-0.3231296236065087</v>
       </c>
       <c r="I23" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
     </row>
     <row r="24" spans="1:9">
@@ -1214,13 +1319,13 @@
         <v>14</v>
       </c>
       <c r="B24" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="C24">
         <v>190</v>
       </c>
       <c r="D24" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="E24">
         <v>2</v>
@@ -1235,7 +1340,7 @@
         <v>-0.4251108065089197</v>
       </c>
       <c r="I24" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
     </row>
     <row r="25" spans="1:9">
@@ -1243,13 +1348,13 @@
         <v>15</v>
       </c>
       <c r="B25" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="C25">
         <v>200</v>
       </c>
       <c r="D25" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="E25">
         <v>2</v>
@@ -1264,7 +1369,7 @@
         <v>-0.4920036265662302</v>
       </c>
       <c r="I25" t="s">
-        <v>48</v>
+        <v>53</v>
       </c>
     </row>
     <row r="26" spans="1:9">
@@ -1272,13 +1377,13 @@
         <v>15</v>
       </c>
       <c r="B26" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="C26">
         <v>216</v>
       </c>
       <c r="D26" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="E26">
         <v>2</v>
@@ -1293,7 +1398,7 @@
         <v>-0.2745289359372929</v>
       </c>
       <c r="I26" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
     </row>
     <row r="27" spans="1:9">
@@ -1301,13 +1406,13 @@
         <v>15</v>
       </c>
       <c r="B27" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="C27">
         <v>239</v>
       </c>
       <c r="D27" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="E27">
         <v>2</v>
@@ -1322,7 +1427,7 @@
         <v>-0.5254216812771721</v>
       </c>
       <c r="I27" t="s">
-        <v>50</v>
+        <v>55</v>
       </c>
     </row>
     <row r="28" spans="1:9">
@@ -1330,13 +1435,13 @@
         <v>15</v>
       </c>
       <c r="B28" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="C28">
         <v>298</v>
       </c>
       <c r="D28" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="E28">
         <v>2</v>
@@ -1351,7 +1456,7 @@
         <v>-0.4771143461244822</v>
       </c>
       <c r="I28" t="s">
-        <v>51</v>
+        <v>56</v>
       </c>
     </row>
     <row r="29" spans="1:9">
@@ -1359,13 +1464,13 @@
         <v>15</v>
       </c>
       <c r="B29" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="C29">
         <v>323</v>
       </c>
       <c r="D29" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="E29">
         <v>2</v>
@@ -1380,7 +1485,7 @@
         <v>-0.2413212946630496</v>
       </c>
       <c r="I29" t="s">
-        <v>52</v>
+        <v>57</v>
       </c>
     </row>
     <row r="30" spans="1:9">
@@ -1388,13 +1493,13 @@
         <v>16</v>
       </c>
       <c r="B30" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="C30">
         <v>60</v>
       </c>
       <c r="D30" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="E30">
         <v>2</v>
@@ -1409,7 +1514,7 @@
         <v>-1.364485621771655</v>
       </c>
       <c r="I30" t="s">
-        <v>53</v>
+        <v>58</v>
       </c>
     </row>
     <row r="31" spans="1:9">
@@ -1417,13 +1522,13 @@
         <v>16</v>
       </c>
       <c r="B31" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="C31">
         <v>61</v>
       </c>
       <c r="D31" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="E31">
         <v>2</v>
@@ -1438,7 +1543,7 @@
         <v>-0.178205400912379</v>
       </c>
       <c r="I31" t="s">
-        <v>54</v>
+        <v>59</v>
       </c>
     </row>
     <row r="32" spans="1:9">
@@ -1446,13 +1551,13 @@
         <v>17</v>
       </c>
       <c r="B32" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="C32">
         <v>291</v>
       </c>
       <c r="D32" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="E32">
         <v>2</v>
@@ -1467,7 +1572,7 @@
         <v>-1.104243486348801</v>
       </c>
       <c r="I32" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
     </row>
     <row r="33" spans="1:9">
@@ -1475,13 +1580,13 @@
         <v>17</v>
       </c>
       <c r="B33" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="C33">
         <v>311</v>
       </c>
       <c r="D33" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="E33">
         <v>2</v>
@@ -1496,7 +1601,7 @@
         <v>-1.158100814197534</v>
       </c>
       <c r="I33" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
     </row>
     <row r="34" spans="1:9">
@@ -1504,13 +1609,13 @@
         <v>17</v>
       </c>
       <c r="B34" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="C34">
         <v>331</v>
       </c>
       <c r="D34" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="E34">
         <v>2</v>
@@ -1525,7 +1630,7 @@
         <v>-0.432796762687722</v>
       </c>
       <c r="I34" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
     </row>
     <row r="35" spans="1:9">
@@ -1533,13 +1638,13 @@
         <v>17</v>
       </c>
       <c r="B35" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="C35">
         <v>341</v>
       </c>
       <c r="D35" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="E35">
         <v>2</v>
@@ -1554,7 +1659,7 @@
         <v>-0.4206730835361734</v>
       </c>
       <c r="I35" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
     </row>
     <row r="36" spans="1:9">
@@ -1562,13 +1667,13 @@
         <v>17</v>
       </c>
       <c r="B36" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="C36">
         <v>363</v>
       </c>
       <c r="D36" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="E36">
         <v>2</v>
@@ -1583,7 +1688,7 @@
         <v>-0.2223168611566289</v>
       </c>
       <c r="I36" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
     </row>
     <row r="37" spans="1:9">
@@ -1591,13 +1696,13 @@
         <v>17</v>
       </c>
       <c r="B37" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="C37">
         <v>373</v>
       </c>
       <c r="D37" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="E37">
         <v>2</v>
@@ -1612,7 +1717,7 @@
         <v>-0.1612812331797882</v>
       </c>
       <c r="I37" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
     </row>
     <row r="38" spans="1:9">
@@ -1620,13 +1725,13 @@
         <v>17</v>
       </c>
       <c r="B38" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="C38">
         <v>383</v>
       </c>
       <c r="D38" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="E38">
         <v>2</v>
@@ -1641,7 +1746,7 @@
         <v>-0.8444749520403274</v>
       </c>
       <c r="I38" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
     </row>
     <row r="39" spans="1:9">
@@ -1649,13 +1754,13 @@
         <v>17</v>
       </c>
       <c r="B39" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="C39">
         <v>403</v>
       </c>
       <c r="D39" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="E39">
         <v>2</v>
@@ -1670,7 +1775,7 @@
         <v>-0.5672911159582186</v>
       </c>
       <c r="I39" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
     </row>
     <row r="40" spans="1:9">
@@ -1678,13 +1783,13 @@
         <v>17</v>
       </c>
       <c r="B40" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="C40">
         <v>413</v>
       </c>
       <c r="D40" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="E40">
         <v>2</v>
@@ -1699,7 +1804,7 @@
         <v>-0.8131272164607715</v>
       </c>
       <c r="I40" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
     </row>
     <row r="41" spans="1:9">
@@ -1707,13 +1812,13 @@
         <v>17</v>
       </c>
       <c r="B41" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="C41">
         <v>473</v>
       </c>
       <c r="D41" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="E41">
         <v>2</v>
@@ -1728,7 +1833,7 @@
         <v>-0.4045798633538944</v>
       </c>
       <c r="I41" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
     </row>
     <row r="42" spans="1:9">
@@ -1736,13 +1841,13 @@
         <v>18</v>
       </c>
       <c r="B42" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="C42">
         <v>103</v>
       </c>
       <c r="D42" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="E42">
         <v>2</v>
@@ -1757,7 +1862,7 @@
         <v>-0.3301303523274104</v>
       </c>
       <c r="I42" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
     </row>
     <row r="43" spans="1:9">
@@ -1765,13 +1870,13 @@
         <v>18</v>
       </c>
       <c r="B43" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="C43">
         <v>119</v>
       </c>
       <c r="D43" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="E43">
         <v>2</v>
@@ -1786,7 +1891,7 @@
         <v>-0.06591166355494638</v>
       </c>
       <c r="I43" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
     </row>
     <row r="44" spans="1:9">
@@ -1794,13 +1899,13 @@
         <v>18</v>
       </c>
       <c r="B44" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="C44">
         <v>124</v>
       </c>
       <c r="D44" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="E44">
         <v>2</v>
@@ -1815,7 +1920,7 @@
         <v>-0.4685459320168228</v>
       </c>
       <c r="I44" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
     </row>
     <row r="45" spans="1:9">
@@ -1823,13 +1928,13 @@
         <v>18</v>
       </c>
       <c r="B45" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="C45">
         <v>166</v>
       </c>
       <c r="D45" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="E45">
         <v>2</v>
@@ -1844,7 +1949,7 @@
         <v>-0.307648890775436</v>
       </c>
       <c r="I45" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
     </row>
     <row r="46" spans="1:9">
@@ -1852,13 +1957,13 @@
         <v>18</v>
       </c>
       <c r="B46" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="C46">
         <v>239</v>
       </c>
       <c r="D46" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="E46">
         <v>2</v>
@@ -1873,7 +1978,7 @@
         <v>-0.5188568224015109</v>
       </c>
       <c r="I46" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
     </row>
     <row r="47" spans="1:9">
@@ -1881,13 +1986,13 @@
         <v>18</v>
       </c>
       <c r="B47" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="C47">
         <v>338</v>
       </c>
       <c r="D47" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="E47">
         <v>2</v>
@@ -1902,7 +2007,7 @@
         <v>-1.676301750812951</v>
       </c>
       <c r="I47" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
     </row>
     <row r="48" spans="1:9">
@@ -1910,13 +2015,13 @@
         <v>18</v>
       </c>
       <c r="B48" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="C48">
         <v>414</v>
       </c>
       <c r="D48" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="E48">
         <v>2</v>
@@ -1931,7 +2036,7 @@
         <v>-0.3897110356840685</v>
       </c>
       <c r="I48" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
     </row>
     <row r="49" spans="1:9">
@@ -1939,13 +2044,13 @@
         <v>18</v>
       </c>
       <c r="B49" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="C49">
         <v>90</v>
       </c>
       <c r="D49" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="E49">
         <v>2</v>
@@ -1960,7 +2065,7 @@
         <v>-0.1653165343677294</v>
       </c>
       <c r="I49" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
     </row>
     <row r="50" spans="1:9">
@@ -1968,13 +2073,13 @@
         <v>18</v>
       </c>
       <c r="B50" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="C50">
         <v>95</v>
       </c>
       <c r="D50" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="E50">
         <v>2</v>
@@ -1989,7 +2094,7 @@
         <v>-0.6167762037184994</v>
       </c>
       <c r="I50" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
     </row>
     <row r="51" spans="1:9">
@@ -1997,13 +2102,13 @@
         <v>18</v>
       </c>
       <c r="B51" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="C51">
         <v>99</v>
       </c>
       <c r="D51" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="E51">
         <v>2</v>
@@ -2018,7 +2123,7 @@
         <v>-0.3312897273699975</v>
       </c>
       <c r="I51" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
     </row>
     <row r="52" spans="1:9">
@@ -2026,16 +2131,16 @@
         <v>18</v>
       </c>
       <c r="B52" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="C52">
         <v>170</v>
       </c>
       <c r="D52" t="s">
-        <v>23</v>
-      </c>
-      <c r="E52" t="s">
-        <v>24</v>
+        <v>28</v>
+      </c>
+      <c r="E52">
+        <v>2</v>
       </c>
       <c r="F52">
         <v>103</v>
@@ -2047,7 +2152,7 @@
         <v>-0.2697520589615139</v>
       </c>
       <c r="I52" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
     </row>
     <row r="53" spans="1:9">
@@ -2055,16 +2160,16 @@
         <v>19</v>
       </c>
       <c r="B53" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="C53">
         <v>173</v>
       </c>
       <c r="D53" t="s">
-        <v>23</v>
-      </c>
-      <c r="E53" t="s">
-        <v>24</v>
+        <v>28</v>
+      </c>
+      <c r="E53">
+        <v>2</v>
       </c>
       <c r="F53">
         <v>103</v>
@@ -2076,7 +2181,7 @@
         <v>-0.3231296236065087</v>
       </c>
       <c r="I53" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
     </row>
     <row r="54" spans="1:9">
@@ -2084,16 +2189,16 @@
         <v>19</v>
       </c>
       <c r="B54" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="C54">
         <v>190</v>
       </c>
       <c r="D54" t="s">
-        <v>23</v>
-      </c>
-      <c r="E54" t="s">
-        <v>24</v>
+        <v>28</v>
+      </c>
+      <c r="E54">
+        <v>2</v>
       </c>
       <c r="F54">
         <v>103</v>
@@ -2105,7 +2210,7 @@
         <v>-0.4251108065089197</v>
       </c>
       <c r="I54" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
     </row>
     <row r="55" spans="1:9">
@@ -2113,16 +2218,16 @@
         <v>19</v>
       </c>
       <c r="B55" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="C55">
         <v>200</v>
       </c>
       <c r="D55" t="s">
-        <v>23</v>
-      </c>
-      <c r="E55" t="s">
-        <v>24</v>
+        <v>28</v>
+      </c>
+      <c r="E55">
+        <v>2</v>
       </c>
       <c r="F55">
         <v>103</v>
@@ -2134,7 +2239,7 @@
         <v>-0.4920036265662302</v>
       </c>
       <c r="I55" t="s">
-        <v>48</v>
+        <v>53</v>
       </c>
     </row>
     <row r="56" spans="1:9">
@@ -2142,16 +2247,16 @@
         <v>19</v>
       </c>
       <c r="B56" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="C56">
         <v>216</v>
       </c>
       <c r="D56" t="s">
-        <v>23</v>
-      </c>
-      <c r="E56" t="s">
-        <v>24</v>
+        <v>28</v>
+      </c>
+      <c r="E56">
+        <v>2</v>
       </c>
       <c r="F56">
         <v>103</v>
@@ -2163,7 +2268,7 @@
         <v>-0.2745289359372929</v>
       </c>
       <c r="I56" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
     </row>
     <row r="57" spans="1:9">
@@ -2171,16 +2276,16 @@
         <v>19</v>
       </c>
       <c r="B57" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="C57">
         <v>239</v>
       </c>
       <c r="D57" t="s">
-        <v>23</v>
-      </c>
-      <c r="E57" t="s">
-        <v>24</v>
+        <v>28</v>
+      </c>
+      <c r="E57">
+        <v>2</v>
       </c>
       <c r="F57">
         <v>103</v>
@@ -2192,7 +2297,7 @@
         <v>-0.5254216812771721</v>
       </c>
       <c r="I57" t="s">
-        <v>50</v>
+        <v>55</v>
       </c>
     </row>
     <row r="58" spans="1:9">
@@ -2200,16 +2305,16 @@
         <v>19</v>
       </c>
       <c r="B58" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="C58">
         <v>298</v>
       </c>
       <c r="D58" t="s">
-        <v>23</v>
-      </c>
-      <c r="E58" t="s">
-        <v>24</v>
+        <v>28</v>
+      </c>
+      <c r="E58">
+        <v>2</v>
       </c>
       <c r="F58">
         <v>103</v>
@@ -2221,7 +2326,7 @@
         <v>-0.4771143461244822</v>
       </c>
       <c r="I58" t="s">
-        <v>51</v>
+        <v>56</v>
       </c>
     </row>
     <row r="59" spans="1:9">
@@ -2229,16 +2334,16 @@
         <v>19</v>
       </c>
       <c r="B59" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="C59">
         <v>323</v>
       </c>
       <c r="D59" t="s">
-        <v>23</v>
-      </c>
-      <c r="E59" t="s">
-        <v>24</v>
+        <v>28</v>
+      </c>
+      <c r="E59">
+        <v>2</v>
       </c>
       <c r="F59">
         <v>103</v>
@@ -2250,7 +2355,7 @@
         <v>-0.2413212946630496</v>
       </c>
       <c r="I59" t="s">
-        <v>52</v>
+        <v>57</v>
       </c>
     </row>
     <row r="60" spans="1:9">
@@ -2258,16 +2363,16 @@
         <v>19</v>
       </c>
       <c r="B60" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="C60">
         <v>60</v>
       </c>
       <c r="D60" t="s">
-        <v>23</v>
-      </c>
-      <c r="E60" t="s">
-        <v>24</v>
+        <v>28</v>
+      </c>
+      <c r="E60">
+        <v>2</v>
       </c>
       <c r="F60">
         <v>103</v>
@@ -2279,7 +2384,7 @@
         <v>-1.364485621771655</v>
       </c>
       <c r="I60" t="s">
-        <v>53</v>
+        <v>58</v>
       </c>
     </row>
     <row r="61" spans="1:9">
@@ -2287,16 +2392,16 @@
         <v>19</v>
       </c>
       <c r="B61" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="C61">
         <v>61</v>
       </c>
       <c r="D61" t="s">
-        <v>23</v>
-      </c>
-      <c r="E61" t="s">
-        <v>24</v>
+        <v>28</v>
+      </c>
+      <c r="E61">
+        <v>2</v>
       </c>
       <c r="F61">
         <v>103</v>
@@ -2308,7 +2413,877 @@
         <v>-0.178205400912379</v>
       </c>
       <c r="I61" t="s">
-        <v>54</v>
+        <v>59</v>
+      </c>
+    </row>
+    <row r="62" spans="1:9">
+      <c r="A62" t="s">
+        <v>20</v>
+      </c>
+      <c r="B62" t="s">
+        <v>25</v>
+      </c>
+      <c r="C62">
+        <v>291</v>
+      </c>
+      <c r="D62" t="s">
+        <v>28</v>
+      </c>
+      <c r="E62">
+        <v>2</v>
+      </c>
+      <c r="F62">
+        <v>103</v>
+      </c>
+      <c r="G62">
+        <v>15.66368837858711</v>
+      </c>
+      <c r="H62">
+        <v>-1.104243486348801</v>
+      </c>
+      <c r="I62" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="63" spans="1:9">
+      <c r="A63" t="s">
+        <v>20</v>
+      </c>
+      <c r="B63" t="s">
+        <v>25</v>
+      </c>
+      <c r="C63">
+        <v>311</v>
+      </c>
+      <c r="D63" t="s">
+        <v>28</v>
+      </c>
+      <c r="E63">
+        <v>2</v>
+      </c>
+      <c r="F63">
+        <v>103</v>
+      </c>
+      <c r="G63">
+        <v>15.86287503739447</v>
+      </c>
+      <c r="H63">
+        <v>-1.158100814197534</v>
+      </c>
+      <c r="I63" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="64" spans="1:9">
+      <c r="A64" t="s">
+        <v>20</v>
+      </c>
+      <c r="B64" t="s">
+        <v>25</v>
+      </c>
+      <c r="C64">
+        <v>331</v>
+      </c>
+      <c r="D64" t="s">
+        <v>28</v>
+      </c>
+      <c r="E64">
+        <v>2</v>
+      </c>
+      <c r="F64">
+        <v>103</v>
+      </c>
+      <c r="G64">
+        <v>12.92523162364933</v>
+      </c>
+      <c r="H64">
+        <v>-0.432796762687722</v>
+      </c>
+      <c r="I64" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="65" spans="1:9">
+      <c r="A65" t="s">
+        <v>20</v>
+      </c>
+      <c r="B65" t="s">
+        <v>25</v>
+      </c>
+      <c r="C65">
+        <v>341</v>
+      </c>
+      <c r="D65" t="s">
+        <v>28</v>
+      </c>
+      <c r="E65">
+        <v>2</v>
+      </c>
+      <c r="F65">
+        <v>103</v>
+      </c>
+      <c r="G65">
+        <v>12.87043219671481</v>
+      </c>
+      <c r="H65">
+        <v>-0.420673189241235</v>
+      </c>
+      <c r="I65" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="66" spans="1:9">
+      <c r="A66" t="s">
+        <v>21</v>
+      </c>
+      <c r="B66" t="s">
+        <v>25</v>
+      </c>
+      <c r="C66">
+        <v>363</v>
+      </c>
+      <c r="D66" t="s">
+        <v>28</v>
+      </c>
+      <c r="E66">
+        <v>2</v>
+      </c>
+      <c r="F66">
+        <v>103</v>
+      </c>
+      <c r="G66">
+        <v>11.93817440433927</v>
+      </c>
+      <c r="H66">
+        <v>-0.2223167438027382</v>
+      </c>
+      <c r="I66" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="67" spans="1:9">
+      <c r="A67" t="s">
+        <v>21</v>
+      </c>
+      <c r="B67" t="s">
+        <v>25</v>
+      </c>
+      <c r="C67">
+        <v>373</v>
+      </c>
+      <c r="D67" t="s">
+        <v>28</v>
+      </c>
+      <c r="E67">
+        <v>2</v>
+      </c>
+      <c r="F67">
+        <v>103</v>
+      </c>
+      <c r="G67">
+        <v>11.63629501984087</v>
+      </c>
+      <c r="H67">
+        <v>-0.1612811315284941</v>
+      </c>
+      <c r="I67" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="68" spans="1:9">
+      <c r="A68" t="s">
+        <v>21</v>
+      </c>
+      <c r="B68" t="s">
+        <v>25</v>
+      </c>
+      <c r="C68">
+        <v>383</v>
+      </c>
+      <c r="D68" t="s">
+        <v>28</v>
+      </c>
+      <c r="E68">
+        <v>2</v>
+      </c>
+      <c r="F68">
+        <v>103</v>
+      </c>
+      <c r="G68">
+        <v>14.6650128273215</v>
+      </c>
+      <c r="H68">
+        <v>-0.8444751858540771</v>
+      </c>
+      <c r="I68" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="69" spans="1:9">
+      <c r="A69" t="s">
+        <v>21</v>
+      </c>
+      <c r="B69" t="s">
+        <v>25</v>
+      </c>
+      <c r="C69">
+        <v>403</v>
+      </c>
+      <c r="D69" t="s">
+        <v>28</v>
+      </c>
+      <c r="E69">
+        <v>2</v>
+      </c>
+      <c r="F69">
+        <v>103</v>
+      </c>
+      <c r="G69">
+        <v>13.51826221195742</v>
+      </c>
+      <c r="H69">
+        <v>-0.5672910546165182</v>
+      </c>
+      <c r="I69" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="70" spans="1:9">
+      <c r="A70" t="s">
+        <v>21</v>
+      </c>
+      <c r="B70" t="s">
+        <v>25</v>
+      </c>
+      <c r="C70">
+        <v>413</v>
+      </c>
+      <c r="D70" t="s">
+        <v>28</v>
+      </c>
+      <c r="E70">
+        <v>2</v>
+      </c>
+      <c r="F70">
+        <v>103</v>
+      </c>
+      <c r="G70">
+        <v>14.53985630034217</v>
+      </c>
+      <c r="H70">
+        <v>-0.8131266912546657</v>
+      </c>
+      <c r="I70" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="71" spans="1:9">
+      <c r="A71" t="s">
+        <v>21</v>
+      </c>
+      <c r="B71" t="s">
+        <v>25</v>
+      </c>
+      <c r="C71">
+        <v>473</v>
+      </c>
+      <c r="D71" t="s">
+        <v>28</v>
+      </c>
+      <c r="E71">
+        <v>2</v>
+      </c>
+      <c r="F71">
+        <v>103</v>
+      </c>
+      <c r="G71">
+        <v>12.79732714854072</v>
+      </c>
+      <c r="H71">
+        <v>-0.40457995809813</v>
+      </c>
+      <c r="I71" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="72" spans="1:9">
+      <c r="A72" t="s">
+        <v>21</v>
+      </c>
+      <c r="B72" t="s">
+        <v>26</v>
+      </c>
+      <c r="C72">
+        <v>103</v>
+      </c>
+      <c r="D72" t="s">
+        <v>28</v>
+      </c>
+      <c r="E72">
+        <v>2</v>
+      </c>
+      <c r="F72">
+        <v>103</v>
+      </c>
+      <c r="G72">
+        <v>12.45355000921404</v>
+      </c>
+      <c r="H72">
+        <v>-0.3301305267285708</v>
+      </c>
+      <c r="I72" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="73" spans="1:9">
+      <c r="A73" t="s">
+        <v>22</v>
+      </c>
+      <c r="B73" t="s">
+        <v>26</v>
+      </c>
+      <c r="C73">
+        <v>119</v>
+      </c>
+      <c r="D73" t="s">
+        <v>28</v>
+      </c>
+      <c r="E73">
+        <v>2</v>
+      </c>
+      <c r="F73">
+        <v>103</v>
+      </c>
+      <c r="G73">
+        <v>11.14824895137687</v>
+      </c>
+      <c r="H73">
+        <v>-0.0659117246172034</v>
+      </c>
+      <c r="I73" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="74" spans="1:9">
+      <c r="A74" t="s">
+        <v>22</v>
+      </c>
+      <c r="B74" t="s">
+        <v>26</v>
+      </c>
+      <c r="C74">
+        <v>124</v>
+      </c>
+      <c r="D74" t="s">
+        <v>28</v>
+      </c>
+      <c r="E74">
+        <v>2</v>
+      </c>
+      <c r="F74">
+        <v>103</v>
+      </c>
+      <c r="G74">
+        <v>13.08548488754699</v>
+      </c>
+      <c r="H74">
+        <v>-0.4685460280784568</v>
+      </c>
+      <c r="I74" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="75" spans="1:9">
+      <c r="A75" t="s">
+        <v>22</v>
+      </c>
+      <c r="B75" t="s">
+        <v>26</v>
+      </c>
+      <c r="C75">
+        <v>166</v>
+      </c>
+      <c r="D75" t="s">
+        <v>28</v>
+      </c>
+      <c r="E75">
+        <v>2</v>
+      </c>
+      <c r="F75">
+        <v>103</v>
+      </c>
+      <c r="G75">
+        <v>12.34785724864917</v>
+      </c>
+      <c r="H75">
+        <v>-0.3076488091546334</v>
+      </c>
+      <c r="I75" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="76" spans="1:9">
+      <c r="A76" t="s">
+        <v>22</v>
+      </c>
+      <c r="B76" t="s">
+        <v>26</v>
+      </c>
+      <c r="C76">
+        <v>239</v>
+      </c>
+      <c r="D76" t="s">
+        <v>28</v>
+      </c>
+      <c r="E76">
+        <v>2</v>
+      </c>
+      <c r="F76">
+        <v>103</v>
+      </c>
+      <c r="G76">
+        <v>13.30774546197828</v>
+      </c>
+      <c r="H76">
+        <v>-0.5188570226942053</v>
+      </c>
+      <c r="I76" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="77" spans="1:9">
+      <c r="A77" t="s">
+        <v>22</v>
+      </c>
+      <c r="B77" t="s">
+        <v>26</v>
+      </c>
+      <c r="C77">
+        <v>338</v>
+      </c>
+      <c r="D77" t="s">
+        <v>28</v>
+      </c>
+      <c r="E77">
+        <v>2</v>
+      </c>
+      <c r="F77">
+        <v>103</v>
+      </c>
+      <c r="G77">
+        <v>17.66499907979428</v>
+      </c>
+      <c r="H77">
+        <v>-1.676302260168649</v>
+      </c>
+      <c r="I77" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="78" spans="1:9">
+      <c r="A78" t="s">
+        <v>22</v>
+      </c>
+      <c r="B78" t="s">
+        <v>26</v>
+      </c>
+      <c r="C78">
+        <v>414</v>
+      </c>
+      <c r="D78" t="s">
+        <v>28</v>
+      </c>
+      <c r="E78">
+        <v>2</v>
+      </c>
+      <c r="F78">
+        <v>103</v>
+      </c>
+      <c r="G78">
+        <v>12.7294094951297</v>
+      </c>
+      <c r="H78">
+        <v>-0.3897108166520828</v>
+      </c>
+      <c r="I78" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="79" spans="1:9">
+      <c r="A79" t="s">
+        <v>22</v>
+      </c>
+      <c r="B79" t="s">
+        <v>26</v>
+      </c>
+      <c r="C79">
+        <v>90</v>
+      </c>
+      <c r="D79" t="s">
+        <v>28</v>
+      </c>
+      <c r="E79">
+        <v>2</v>
+      </c>
+      <c r="F79">
+        <v>103</v>
+      </c>
+      <c r="G79">
+        <v>11.65649640701014</v>
+      </c>
+      <c r="H79">
+        <v>-0.165316755123929</v>
+      </c>
+      <c r="I79" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="80" spans="1:9">
+      <c r="A80" t="s">
+        <v>22</v>
+      </c>
+      <c r="B80" t="s">
+        <v>26</v>
+      </c>
+      <c r="C80">
+        <v>95</v>
+      </c>
+      <c r="D80" t="s">
+        <v>28</v>
+      </c>
+      <c r="E80">
+        <v>2</v>
+      </c>
+      <c r="F80">
+        <v>103</v>
+      </c>
+      <c r="G80">
+        <v>13.73001460846157</v>
+      </c>
+      <c r="H80">
+        <v>-0.6167762511501529</v>
+      </c>
+      <c r="I80" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="81" spans="1:9">
+      <c r="A81" t="s">
+        <v>22</v>
+      </c>
+      <c r="B81" t="s">
+        <v>26</v>
+      </c>
+      <c r="C81">
+        <v>99</v>
+      </c>
+      <c r="D81" t="s">
+        <v>28</v>
+      </c>
+      <c r="E81">
+        <v>2</v>
+      </c>
+      <c r="F81">
+        <v>103</v>
+      </c>
+      <c r="G81">
+        <v>12.45897593666123</v>
+      </c>
+      <c r="H81">
+        <v>-0.3312898369603967</v>
+      </c>
+      <c r="I81" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="82" spans="1:9">
+      <c r="A82" t="s">
+        <v>23</v>
+      </c>
+      <c r="B82" t="s">
+        <v>27</v>
+      </c>
+      <c r="C82">
+        <v>170</v>
+      </c>
+      <c r="D82" t="s">
+        <v>28</v>
+      </c>
+      <c r="E82" t="s">
+        <v>29</v>
+      </c>
+      <c r="F82">
+        <v>103</v>
+      </c>
+      <c r="G82">
+        <v>12.16761609473471</v>
+      </c>
+      <c r="H82">
+        <v>-0.269752041885696</v>
+      </c>
+      <c r="I82" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="83" spans="1:9">
+      <c r="A83" t="s">
+        <v>23</v>
+      </c>
+      <c r="B83" t="s">
+        <v>27</v>
+      </c>
+      <c r="C83">
+        <v>173</v>
+      </c>
+      <c r="D83" t="s">
+        <v>28</v>
+      </c>
+      <c r="E83" t="s">
+        <v>29</v>
+      </c>
+      <c r="F83">
+        <v>103</v>
+      </c>
+      <c r="G83">
+        <v>12.42073404762636</v>
+      </c>
+      <c r="H83">
+        <v>-0.3231297915960796</v>
+      </c>
+      <c r="I83" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="84" spans="1:9">
+      <c r="A84" t="s">
+        <v>23</v>
+      </c>
+      <c r="B84" t="s">
+        <v>27</v>
+      </c>
+      <c r="C84">
+        <v>190</v>
+      </c>
+      <c r="D84" t="s">
+        <v>28</v>
+      </c>
+      <c r="E84" t="s">
+        <v>29</v>
+      </c>
+      <c r="F84">
+        <v>103</v>
+      </c>
+      <c r="G84">
+        <v>12.89051682514453</v>
+      </c>
+      <c r="H84">
+        <v>-0.4251106403628708</v>
+      </c>
+      <c r="I84" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="85" spans="1:9">
+      <c r="A85" t="s">
+        <v>23</v>
+      </c>
+      <c r="B85" t="s">
+        <v>27</v>
+      </c>
+      <c r="C85">
+        <v>200</v>
+      </c>
+      <c r="D85" t="s">
+        <v>28</v>
+      </c>
+      <c r="E85" t="s">
+        <v>29</v>
+      </c>
+      <c r="F85">
+        <v>103</v>
+      </c>
+      <c r="G85">
+        <v>13.18958080660377</v>
+      </c>
+      <c r="H85">
+        <v>-0.4920037285756997</v>
+      </c>
+      <c r="I85" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="86" spans="1:9">
+      <c r="A86" t="s">
+        <v>23</v>
+      </c>
+      <c r="B86" t="s">
+        <v>27</v>
+      </c>
+      <c r="C86">
+        <v>216</v>
+      </c>
+      <c r="D86" t="s">
+        <v>28</v>
+      </c>
+      <c r="E86" t="s">
+        <v>29</v>
+      </c>
+      <c r="F86">
+        <v>103</v>
+      </c>
+      <c r="G86">
+        <v>12.19048274155872</v>
+      </c>
+      <c r="H86">
+        <v>-0.2745290259777828</v>
+      </c>
+      <c r="I86" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="87" spans="1:9">
+      <c r="A87" t="s">
+        <v>23</v>
+      </c>
+      <c r="B87" t="s">
+        <v>27</v>
+      </c>
+      <c r="C87">
+        <v>239</v>
+      </c>
+      <c r="D87" t="s">
+        <v>28</v>
+      </c>
+      <c r="E87" t="s">
+        <v>29</v>
+      </c>
+      <c r="F87">
+        <v>103</v>
+      </c>
+      <c r="G87">
+        <v>13.33647290499162</v>
+      </c>
+      <c r="H87">
+        <v>-0.5254216168034427</v>
+      </c>
+      <c r="I87" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="88" spans="1:9">
+      <c r="A88" t="s">
+        <v>23</v>
+      </c>
+      <c r="B88" t="s">
+        <v>27</v>
+      </c>
+      <c r="C88">
+        <v>298</v>
+      </c>
+      <c r="D88" t="s">
+        <v>28</v>
+      </c>
+      <c r="E88" t="s">
+        <v>29</v>
+      </c>
+      <c r="F88">
+        <v>103</v>
+      </c>
+      <c r="G88">
+        <v>13.12360466050718</v>
+      </c>
+      <c r="H88">
+        <v>-0.4771146338599976</v>
+      </c>
+      <c r="I88" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="89" spans="1:9">
+      <c r="A89" t="s">
+        <v>23</v>
+      </c>
+      <c r="B89" t="s">
+        <v>27</v>
+      </c>
+      <c r="C89">
+        <v>323</v>
+      </c>
+      <c r="D89" t="s">
+        <v>28</v>
+      </c>
+      <c r="E89" t="s">
+        <v>29</v>
+      </c>
+      <c r="F89">
+        <v>103</v>
+      </c>
+      <c r="G89">
+        <v>12.03062328818381</v>
+      </c>
+      <c r="H89">
+        <v>-0.2413212173957036</v>
+      </c>
+      <c r="I89" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="90" spans="1:9">
+      <c r="A90" t="s">
+        <v>24</v>
+      </c>
+      <c r="B90" t="s">
+        <v>27</v>
+      </c>
+      <c r="C90">
+        <v>60</v>
+      </c>
+      <c r="D90" t="s">
+        <v>28</v>
+      </c>
+      <c r="E90" t="s">
+        <v>29</v>
+      </c>
+      <c r="F90">
+        <v>103</v>
+      </c>
+      <c r="G90">
+        <v>16.60406397773083</v>
+      </c>
+      <c r="H90">
+        <v>-1.364485846731725</v>
+      </c>
+      <c r="I90" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="91" spans="1:9">
+      <c r="A91" t="s">
+        <v>24</v>
+      </c>
+      <c r="B91" t="s">
+        <v>27</v>
+      </c>
+      <c r="C91">
+        <v>61</v>
+      </c>
+      <c r="D91" t="s">
+        <v>28</v>
+      </c>
+      <c r="E91" t="s">
+        <v>29</v>
+      </c>
+      <c r="F91">
+        <v>103</v>
+      </c>
+      <c r="G91">
+        <v>11.72078129993688</v>
+      </c>
+      <c r="H91">
+        <v>-0.1782055046367064</v>
+      </c>
+      <c r="I91" t="s">
+        <v>89</v>
       </c>
     </row>
   </sheetData>
